--- a/testData/WebForm/WF_RRN_OneYN_TwoN_Test.xlsx
+++ b/testData/WebForm/WF_RRN_OneYN_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>9840069348</t>
+  </si>
+  <si>
+    <t>9840009789</t>
+  </si>
+  <si>
+    <t>9840032208</t>
+  </si>
+  <si>
+    <t>9840072779</t>
   </si>
 </sst>
 </file>
@@ -939,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1112,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1439,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
